--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1367"/>
+  <dimension ref="A1:H1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35785,13 +35785,39 @@
       <c r="A1367" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
+      <c r="B1367" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1368"/>
+  <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35811,13 +35811,39 @@
       <c r="A1368" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
+      <c r="B1368" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1369"/>
+  <dimension ref="A1:H1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35837,13 +35837,39 @@
       <c r="A1369" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
+      <c r="B1369" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1371"/>
+  <dimension ref="A1:J1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44113,15 +44113,47 @@
       <c r="A1371" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-      <c r="J1371" t="inlineStr"/>
+      <c r="B1371" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>18.45125</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1372"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,15 +44145,47 @@
       <c r="A1372" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-      <c r="J1372" t="inlineStr"/>
+      <c r="B1372" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>15.85125</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1373"/>
+  <dimension ref="A1:J1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44177,15 +44177,47 @@
       <c r="A1373" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-      <c r="J1373" t="inlineStr"/>
+      <c r="B1373" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>14.46625</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1374"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44209,15 +44209,79 @@
       <c r="A1374" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-      <c r="J1374" t="inlineStr"/>
+      <c r="B1374" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>13.1375</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>9.520000000000001</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>10.10875</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44254,7 +44254,7 @@
         <v>10.1</v>
       </c>
       <c r="F1375" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G1375" t="n">
         <v>9</v>
@@ -44263,25 +44263,57 @@
         <v>9.1</v>
       </c>
       <c r="I1375" t="n">
-        <v>10.11</v>
+        <v>10.09</v>
       </c>
       <c r="J1375" t="n">
-        <v>10.10875</v>
+        <v>10.09375</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-      <c r="J1376" t="inlineStr"/>
+      <c r="B1376" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>8.520000000000001</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>9.137499999999999</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1377"/>
+  <dimension ref="A1:J1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44305,15 +44305,47 @@
       <c r="A1377" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-      <c r="J1377" t="inlineStr"/>
+      <c r="B1377" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>7.819999999999999</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>8.408750000000001</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1378"/>
+  <dimension ref="A1:J1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44337,15 +44337,47 @@
       <c r="A1378" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-      <c r="J1378" t="inlineStr"/>
+      <c r="B1378" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>11.85125</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1379"/>
+  <dimension ref="A1:J1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44369,15 +44369,47 @@
       <c r="A1379" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-      <c r="J1379" t="inlineStr"/>
+      <c r="B1379" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>12.5375</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1380"/>
+  <dimension ref="A1:J1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44401,15 +44401,47 @@
       <c r="A1380" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
+      <c r="B1380" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>14.10875</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1381"/>
+  <dimension ref="A1:J1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44433,15 +44433,47 @@
       <c r="A1381" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-      <c r="J1381" t="inlineStr"/>
+      <c r="B1381" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>16.90875</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1382"/>
+  <dimension ref="A1:J1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44465,15 +44465,47 @@
       <c r="A1382" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-      <c r="J1382" t="inlineStr"/>
+      <c r="B1382" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>18.5225</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1383"/>
+  <dimension ref="A1:J1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,15 +44497,47 @@
       <c r="A1383" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-      <c r="J1383" t="inlineStr"/>
+      <c r="B1383" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>17.25125</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1384"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44529,15 +44529,47 @@
       <c r="A1384" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-      <c r="J1384" t="inlineStr"/>
+      <c r="B1384" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>14.79375</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1385"/>
+  <dimension ref="A1:J1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,16 +43841,16 @@
         <v>12.4</v>
       </c>
       <c r="G1362" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="H1362" t="n">
         <v>11.5</v>
       </c>
       <c r="I1362" t="n">
-        <v>12.57</v>
+        <v>12.55</v>
       </c>
       <c r="J1362" t="n">
-        <v>12.56625</v>
+        <v>12.55125</v>
       </c>
     </row>
     <row r="1363">
@@ -44561,15 +44561,47 @@
       <c r="A1385" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-      <c r="J1385" t="inlineStr"/>
+      <c r="B1385" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>13.8225</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1386"/>
+  <dimension ref="A1:J1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44593,15 +44593,47 @@
       <c r="A1386" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-      <c r="J1386" t="inlineStr"/>
+      <c r="B1386" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>9.822499999999998</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1387"/>
+  <dimension ref="A1:J1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44625,15 +44625,47 @@
       <c r="A1387" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-      <c r="J1387" t="inlineStr"/>
+      <c r="B1387" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>9.120000000000001</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>9.879999999999999</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1388"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44657,15 +44657,47 @@
       <c r="A1388" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-      <c r="J1388" t="inlineStr"/>
+      <c r="B1388" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>8.520000000000001</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>8.99375</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+      <c r="J1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44689,15 +44688,47 @@
       <c r="A1389" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-      <c r="J1389" t="inlineStr"/>
+      <c r="B1389" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>9.808750000000002</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+      <c r="J1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1390"/>
+  <dimension ref="A1:J1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44720,15 +44720,47 @@
       <c r="A1390" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-      <c r="J1390" t="inlineStr"/>
+      <c r="B1390" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>11.2225</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+      <c r="J1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1391"/>
+  <dimension ref="A1:J1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44752,15 +44752,47 @@
       <c r="A1391" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-      <c r="J1391" t="inlineStr"/>
+      <c r="B1391" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>12.90875</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1392"/>
+  <dimension ref="A1:J1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +717,7 @@
         <v>9.6</v>
       </c>
       <c r="J10" t="n">
-        <v>9.600000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="11">
@@ -1271,7 +1271,7 @@
         <v>10.68</v>
       </c>
       <c r="J30" t="n">
-        <v>10.67666666666666</v>
+        <v>10.67666666666667</v>
       </c>
     </row>
     <row r="31">
@@ -1299,7 +1299,7 @@
         <v>8.52</v>
       </c>
       <c r="J31" t="n">
-        <v>8.516666666666666</v>
+        <v>8.516666666666667</v>
       </c>
     </row>
     <row r="32">
@@ -1555,7 +1555,7 @@
         <v>13.36</v>
       </c>
       <c r="J40" t="n">
-        <v>13.35571428571429</v>
+        <v>13.35571428571428</v>
       </c>
     </row>
     <row r="41">
@@ -2025,7 +2025,7 @@
         <v>6.95</v>
       </c>
       <c r="J55" t="n">
-        <v>6.95375</v>
+        <v>6.953750000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2409,7 +2409,7 @@
         <v>7.18</v>
       </c>
       <c r="J67" t="n">
-        <v>7.1825</v>
+        <v>7.182499999999999</v>
       </c>
     </row>
     <row r="68">
@@ -2441,7 +2441,7 @@
         <v>6.95</v>
       </c>
       <c r="J68" t="n">
-        <v>6.953750000000001</v>
+        <v>6.95375</v>
       </c>
     </row>
     <row r="69">
@@ -3209,7 +3209,7 @@
         <v>8.07</v>
       </c>
       <c r="J92" t="n">
-        <v>8.071249999999999</v>
+        <v>8.071250000000001</v>
       </c>
     </row>
     <row r="93">
@@ -3241,7 +3241,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="J93" t="n">
-        <v>8.213750000000001</v>
+        <v>8.213749999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4041,7 +4041,7 @@
         <v>9.23</v>
       </c>
       <c r="J118" t="n">
-        <v>9.22875</v>
+        <v>9.228750000000002</v>
       </c>
     </row>
     <row r="119">
@@ -4393,7 +4393,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="J129" t="n">
-        <v>8.286249999999999</v>
+        <v>8.286250000000001</v>
       </c>
     </row>
     <row r="130">
@@ -4745,7 +4745,7 @@
         <v>7.62</v>
       </c>
       <c r="J140" t="n">
-        <v>7.616249999999999</v>
+        <v>7.61625</v>
       </c>
     </row>
     <row r="141">
@@ -4809,7 +4809,7 @@
         <v>9.07</v>
       </c>
       <c r="J142" t="n">
-        <v>9.072500000000002</v>
+        <v>9.0725</v>
       </c>
     </row>
     <row r="143">
@@ -5097,7 +5097,7 @@
         <v>8.74</v>
       </c>
       <c r="J151" t="n">
-        <v>8.741249999999999</v>
+        <v>8.741250000000001</v>
       </c>
     </row>
     <row r="152">
@@ -5161,7 +5161,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J153" t="n">
-        <v>8.198749999999999</v>
+        <v>8.19875</v>
       </c>
     </row>
     <row r="154">
@@ -5545,7 +5545,7 @@
         <v>8.41</v>
       </c>
       <c r="J165" t="n">
-        <v>8.4125</v>
+        <v>8.412500000000001</v>
       </c>
     </row>
     <row r="166">
@@ -5865,7 +5865,7 @@
         <v>7.56</v>
       </c>
       <c r="J175" t="n">
-        <v>7.55625</v>
+        <v>7.556249999999999</v>
       </c>
     </row>
     <row r="176">
@@ -5929,7 +5929,7 @@
         <v>7.21</v>
       </c>
       <c r="J177" t="n">
-        <v>7.212499999999999</v>
+        <v>7.2125</v>
       </c>
     </row>
     <row r="178">
@@ -6249,7 +6249,7 @@
         <v>8.33</v>
       </c>
       <c r="J187" t="n">
-        <v>8.331249999999999</v>
+        <v>8.331250000000001</v>
       </c>
     </row>
     <row r="188">
@@ -7017,7 +7017,7 @@
         <v>7.73</v>
       </c>
       <c r="J211" t="n">
-        <v>7.732500000000002</v>
+        <v>7.7325</v>
       </c>
     </row>
     <row r="212">
@@ -7113,7 +7113,7 @@
         <v>9.82</v>
       </c>
       <c r="J214" t="n">
-        <v>9.818749999999998</v>
+        <v>9.81875</v>
       </c>
     </row>
     <row r="215">
@@ -7465,7 +7465,7 @@
         <v>7.58</v>
       </c>
       <c r="J225" t="n">
-        <v>7.576249999999999</v>
+        <v>7.57625</v>
       </c>
     </row>
     <row r="226">
@@ -7817,7 +7817,7 @@
         <v>8.33</v>
       </c>
       <c r="J236" t="n">
-        <v>8.331249999999999</v>
+        <v>8.331250000000001</v>
       </c>
     </row>
     <row r="237">
@@ -7881,7 +7881,7 @@
         <v>9.93</v>
       </c>
       <c r="J238" t="n">
-        <v>9.931250000000002</v>
+        <v>9.93125</v>
       </c>
     </row>
     <row r="239">
@@ -8265,7 +8265,7 @@
         <v>9.01</v>
       </c>
       <c r="J250" t="n">
-        <v>9.00625</v>
+        <v>9.006250000000001</v>
       </c>
     </row>
     <row r="251">
@@ -8521,7 +8521,7 @@
         <v>9.68</v>
       </c>
       <c r="J258" t="n">
-        <v>9.677499999999998</v>
+        <v>9.677500000000002</v>
       </c>
     </row>
     <row r="259">
@@ -8585,7 +8585,7 @@
         <v>6.21</v>
       </c>
       <c r="J260" t="n">
-        <v>6.206250000000001</v>
+        <v>6.20625</v>
       </c>
     </row>
     <row r="261">
@@ -8649,7 +8649,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="J262" t="n">
-        <v>8.633750000000001</v>
+        <v>8.633749999999999</v>
       </c>
     </row>
     <row r="263">
@@ -8969,7 +8969,7 @@
         <v>7.08</v>
       </c>
       <c r="J272" t="n">
-        <v>7.0775</v>
+        <v>7.077500000000001</v>
       </c>
     </row>
     <row r="273">
@@ -9001,7 +9001,7 @@
         <v>7.28</v>
       </c>
       <c r="J273" t="n">
-        <v>7.277500000000001</v>
+        <v>7.2775</v>
       </c>
     </row>
     <row r="274">
@@ -9353,7 +9353,7 @@
         <v>6.07</v>
       </c>
       <c r="J284" t="n">
-        <v>6.070000000000001</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="285">
@@ -9673,7 +9673,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="J294" t="n">
-        <v>9.612499999999999</v>
+        <v>9.612500000000001</v>
       </c>
     </row>
     <row r="295">
@@ -9705,7 +9705,7 @@
         <v>6.8</v>
       </c>
       <c r="J295" t="n">
-        <v>6.798749999999999</v>
+        <v>6.79875</v>
       </c>
     </row>
     <row r="296">
@@ -10057,7 +10057,7 @@
         <v>9.43</v>
       </c>
       <c r="J306" t="n">
-        <v>9.427499999999998</v>
+        <v>9.4275</v>
       </c>
     </row>
     <row r="307">
@@ -10089,7 +10089,7 @@
         <v>7.86</v>
       </c>
       <c r="J307" t="n">
-        <v>7.85625</v>
+        <v>7.856250000000001</v>
       </c>
     </row>
     <row r="308">
@@ -10121,7 +10121,7 @@
         <v>6.68</v>
       </c>
       <c r="J308" t="n">
-        <v>6.683750000000001</v>
+        <v>6.68375</v>
       </c>
     </row>
     <row r="309">
@@ -10441,7 +10441,7 @@
         <v>9.6</v>
       </c>
       <c r="J318" t="n">
-        <v>9.598750000000001</v>
+        <v>9.598749999999999</v>
       </c>
     </row>
     <row r="319">
@@ -10473,7 +10473,7 @@
         <v>7.81</v>
       </c>
       <c r="J319" t="n">
-        <v>7.812499999999999</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="320">
@@ -10857,7 +10857,7 @@
         <v>7.77</v>
       </c>
       <c r="J331" t="n">
-        <v>7.770000000000001</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="332">
@@ -10953,7 +10953,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="J334" t="n">
-        <v>9.612499999999999</v>
+        <v>9.612500000000001</v>
       </c>
     </row>
     <row r="335">
@@ -11273,7 +11273,7 @@
         <v>6.73</v>
       </c>
       <c r="J344" t="n">
-        <v>6.727500000000001</v>
+        <v>6.7275</v>
       </c>
     </row>
     <row r="345">
@@ -11657,7 +11657,7 @@
         <v>6.41</v>
       </c>
       <c r="J356" t="n">
-        <v>6.4125</v>
+        <v>6.412500000000001</v>
       </c>
     </row>
     <row r="357">
@@ -12009,7 +12009,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="J367" t="n">
-        <v>9.28375</v>
+        <v>9.283750000000001</v>
       </c>
     </row>
     <row r="368">
@@ -12361,7 +12361,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="J378" t="n">
-        <v>9.041250000000002</v>
+        <v>9.041249999999998</v>
       </c>
     </row>
     <row r="379">
@@ -12393,7 +12393,7 @@
         <v>7.71</v>
       </c>
       <c r="J379" t="n">
-        <v>7.7125</v>
+        <v>7.712499999999999</v>
       </c>
     </row>
     <row r="380">
@@ -12457,7 +12457,7 @@
         <v>8.73</v>
       </c>
       <c r="J381" t="n">
-        <v>8.727499999999999</v>
+        <v>8.727500000000001</v>
       </c>
     </row>
     <row r="382">
@@ -12777,7 +12777,7 @@
         <v>6.57</v>
       </c>
       <c r="J391" t="n">
-        <v>6.570000000000001</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="392">
@@ -13609,7 +13609,7 @@
         <v>6.91</v>
       </c>
       <c r="J417" t="n">
-        <v>6.911250000000001</v>
+        <v>6.91125</v>
       </c>
     </row>
     <row r="418">
@@ -13897,7 +13897,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="J426" t="n">
-        <v>9.387500000000001</v>
+        <v>9.387499999999999</v>
       </c>
     </row>
     <row r="427">
@@ -13961,7 +13961,7 @@
         <v>7.53</v>
       </c>
       <c r="J428" t="n">
-        <v>7.53</v>
+        <v>7.530000000000001</v>
       </c>
     </row>
     <row r="429">
@@ -14377,7 +14377,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="J441" t="n">
-        <v>9.376249999999999</v>
+        <v>9.376250000000001</v>
       </c>
     </row>
     <row r="442">
@@ -15465,7 +15465,7 @@
         <v>7.56</v>
       </c>
       <c r="J475" t="n">
-        <v>7.557499999999999</v>
+        <v>7.5575</v>
       </c>
     </row>
     <row r="476">
@@ -15849,7 +15849,7 @@
         <v>8.41</v>
       </c>
       <c r="J487" t="n">
-        <v>8.413749999999999</v>
+        <v>8.41375</v>
       </c>
     </row>
     <row r="488">
@@ -15881,7 +15881,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="J488" t="n">
-        <v>8.642499999999998</v>
+        <v>8.6425</v>
       </c>
     </row>
     <row r="489">
@@ -16265,7 +16265,7 @@
         <v>7.33</v>
       </c>
       <c r="J500" t="n">
-        <v>7.328749999999999</v>
+        <v>7.32875</v>
       </c>
     </row>
     <row r="501">
@@ -16585,7 +16585,7 @@
         <v>9.41</v>
       </c>
       <c r="J510" t="n">
-        <v>9.409999999999998</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="511">
@@ -17033,7 +17033,7 @@
         <v>6.52</v>
       </c>
       <c r="J524" t="n">
-        <v>6.52375</v>
+        <v>6.523750000000001</v>
       </c>
     </row>
     <row r="525">
@@ -17417,7 +17417,7 @@
         <v>7.37</v>
       </c>
       <c r="J536" t="n">
-        <v>7.367499999999999</v>
+        <v>7.367500000000001</v>
       </c>
     </row>
     <row r="537">
@@ -18185,7 +18185,7 @@
         <v>6.94</v>
       </c>
       <c r="J560" t="n">
-        <v>6.938749999999999</v>
+        <v>6.93875</v>
       </c>
     </row>
     <row r="561">
@@ -18601,7 +18601,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="J573" t="n">
-        <v>8.209999999999999</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="574">
@@ -18953,7 +18953,7 @@
         <v>6.9</v>
       </c>
       <c r="J584" t="n">
-        <v>6.896249999999999</v>
+        <v>6.89625</v>
       </c>
     </row>
     <row r="585">
@@ -19369,7 +19369,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="J597" t="n">
-        <v>8.452499999999999</v>
+        <v>8.452500000000001</v>
       </c>
     </row>
     <row r="598">
@@ -19721,7 +19721,7 @@
         <v>7.47</v>
       </c>
       <c r="J608" t="n">
-        <v>7.467499999999999</v>
+        <v>7.4675</v>
       </c>
     </row>
     <row r="609">
@@ -20105,7 +20105,7 @@
         <v>7.9</v>
       </c>
       <c r="J620" t="n">
-        <v>7.896249999999999</v>
+        <v>7.896250000000001</v>
       </c>
     </row>
     <row r="621">
@@ -20553,7 +20553,7 @@
         <v>9.59</v>
       </c>
       <c r="J634" t="n">
-        <v>9.59125</v>
+        <v>9.591249999999999</v>
       </c>
     </row>
     <row r="635">
@@ -21225,7 +21225,7 @@
         <v>7.56</v>
       </c>
       <c r="J655" t="n">
-        <v>7.562500000000002</v>
+        <v>7.562500000000001</v>
       </c>
     </row>
     <row r="656">
@@ -21673,7 +21673,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="J669" t="n">
-        <v>8.132499999999999</v>
+        <v>8.1325</v>
       </c>
     </row>
     <row r="670">
@@ -22025,7 +22025,7 @@
         <v>6.46</v>
       </c>
       <c r="J680" t="n">
-        <v>6.461250000000001</v>
+        <v>6.46125</v>
       </c>
     </row>
     <row r="681">
@@ -22761,7 +22761,7 @@
         <v>7.46</v>
       </c>
       <c r="J703" t="n">
-        <v>7.461250000000001</v>
+        <v>7.46125</v>
       </c>
     </row>
     <row r="704">
@@ -23145,7 +23145,7 @@
         <v>8.31</v>
       </c>
       <c r="J715" t="n">
-        <v>8.311249999999999</v>
+        <v>8.311250000000001</v>
       </c>
     </row>
     <row r="716">
@@ -23177,7 +23177,7 @@
         <v>6.77</v>
       </c>
       <c r="J716" t="n">
-        <v>6.768750000000001</v>
+        <v>6.76875</v>
       </c>
     </row>
     <row r="717">
@@ -23209,7 +23209,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J717" t="n">
-        <v>8.797500000000001</v>
+        <v>8.797499999999999</v>
       </c>
     </row>
     <row r="718">
@@ -23945,7 +23945,7 @@
         <v>8.539999999999999</v>
       </c>
       <c r="J740" t="n">
-        <v>8.539999999999999</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="741">
@@ -23977,7 +23977,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="J741" t="n">
-        <v>9.11125</v>
+        <v>9.111249999999998</v>
       </c>
     </row>
     <row r="742">
@@ -24361,7 +24361,7 @@
         <v>9.35</v>
       </c>
       <c r="J753" t="n">
-        <v>9.353749999999998</v>
+        <v>9.35375</v>
       </c>
     </row>
     <row r="754">
@@ -24681,7 +24681,7 @@
         <v>6.64</v>
       </c>
       <c r="J763" t="n">
-        <v>6.64</v>
+        <v>6.640000000000001</v>
       </c>
     </row>
     <row r="764">
@@ -24713,7 +24713,7 @@
         <v>7.78</v>
       </c>
       <c r="J764" t="n">
-        <v>7.782500000000001</v>
+        <v>7.7825</v>
       </c>
     </row>
     <row r="765">
@@ -24745,7 +24745,7 @@
         <v>7.31</v>
       </c>
       <c r="J765" t="n">
-        <v>7.31125</v>
+        <v>7.311249999999999</v>
       </c>
     </row>
     <row r="766">
@@ -25097,7 +25097,7 @@
         <v>7.25</v>
       </c>
       <c r="J776" t="n">
-        <v>7.253750000000001</v>
+        <v>7.25375</v>
       </c>
     </row>
     <row r="777">
@@ -25129,7 +25129,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="J777" t="n">
-        <v>8.526249999999999</v>
+        <v>8.526250000000001</v>
       </c>
     </row>
     <row r="778">
@@ -25865,7 +25865,7 @@
         <v>7.23</v>
       </c>
       <c r="J800" t="n">
-        <v>7.22625</v>
+        <v>7.226249999999999</v>
       </c>
     </row>
     <row r="801">
@@ -25897,7 +25897,7 @@
         <v>8.94</v>
       </c>
       <c r="J801" t="n">
-        <v>8.94</v>
+        <v>8.939999999999998</v>
       </c>
     </row>
     <row r="802">
@@ -26249,7 +26249,7 @@
         <v>7.39</v>
       </c>
       <c r="J812" t="n">
-        <v>7.393750000000001</v>
+        <v>7.39375</v>
       </c>
     </row>
     <row r="813">
@@ -26633,7 +26633,7 @@
         <v>7.87</v>
       </c>
       <c r="J824" t="n">
-        <v>7.866249999999999</v>
+        <v>7.86625</v>
       </c>
     </row>
     <row r="825">
@@ -27433,7 +27433,7 @@
         <v>8.01</v>
       </c>
       <c r="J849" t="n">
-        <v>8.008750000000001</v>
+        <v>8.008749999999999</v>
       </c>
     </row>
     <row r="850">
@@ -28169,7 +28169,7 @@
         <v>7.79</v>
       </c>
       <c r="J872" t="n">
-        <v>7.79375</v>
+        <v>7.793750000000001</v>
       </c>
     </row>
     <row r="873">
@@ -28905,7 +28905,7 @@
         <v>8.25</v>
       </c>
       <c r="J895" t="n">
-        <v>8.251249999999999</v>
+        <v>8.251250000000001</v>
       </c>
     </row>
     <row r="896">
@@ -29321,7 +29321,7 @@
         <v>8.59</v>
       </c>
       <c r="J908" t="n">
-        <v>8.593749999999998</v>
+        <v>8.59375</v>
       </c>
     </row>
     <row r="909">
@@ -29705,7 +29705,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="J920" t="n">
-        <v>8.779999999999999</v>
+        <v>8.780000000000001</v>
       </c>
     </row>
     <row r="921">
@@ -30057,7 +30057,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="J931" t="n">
-        <v>8.366250000000001</v>
+        <v>8.366249999999999</v>
       </c>
     </row>
     <row r="932">
@@ -30121,7 +30121,7 @@
         <v>7.79</v>
       </c>
       <c r="J933" t="n">
-        <v>7.79375</v>
+        <v>7.793749999999999</v>
       </c>
     </row>
     <row r="934">
@@ -30793,7 +30793,7 @@
         <v>9.81</v>
       </c>
       <c r="J954" t="n">
-        <v>9.80625</v>
+        <v>9.806249999999999</v>
       </c>
     </row>
     <row r="955">
@@ -30825,7 +30825,7 @@
         <v>9.01</v>
       </c>
       <c r="J955" t="n">
-        <v>9.006250000000001</v>
+        <v>9.00625</v>
       </c>
     </row>
     <row r="956">
@@ -30857,7 +30857,7 @@
         <v>8.83</v>
       </c>
       <c r="J956" t="n">
-        <v>8.83375</v>
+        <v>8.833749999999998</v>
       </c>
     </row>
     <row r="957">
@@ -30889,7 +30889,7 @@
         <v>9.25</v>
       </c>
       <c r="J957" t="n">
-        <v>9.248749999999999</v>
+        <v>9.248750000000001</v>
       </c>
     </row>
     <row r="958">
@@ -32041,7 +32041,7 @@
         <v>9.52</v>
       </c>
       <c r="J993" t="n">
-        <v>9.5175</v>
+        <v>9.517499999999998</v>
       </c>
     </row>
     <row r="994">
@@ -32777,7 +32777,7 @@
         <v>7.9</v>
       </c>
       <c r="J1016" t="n">
-        <v>7.902500000000001</v>
+        <v>7.9025</v>
       </c>
     </row>
     <row r="1017">
@@ -33129,7 +33129,7 @@
         <v>7.8</v>
       </c>
       <c r="J1027" t="n">
-        <v>7.802499999999999</v>
+        <v>7.8025</v>
       </c>
     </row>
     <row r="1028">
@@ -33161,7 +33161,7 @@
         <v>7.37</v>
       </c>
       <c r="J1028" t="n">
-        <v>7.37375</v>
+        <v>7.373750000000001</v>
       </c>
     </row>
     <row r="1029">
@@ -33225,7 +33225,7 @@
         <v>9.56</v>
       </c>
       <c r="J1030" t="n">
-        <v>9.56</v>
+        <v>9.560000000000002</v>
       </c>
     </row>
     <row r="1031">
@@ -33897,7 +33897,7 @@
         <v>7.75</v>
       </c>
       <c r="J1051" t="n">
-        <v>7.746249999999999</v>
+        <v>7.74625</v>
       </c>
     </row>
     <row r="1052">
@@ -33929,7 +33929,7 @@
         <v>7.65</v>
       </c>
       <c r="J1052" t="n">
-        <v>7.64625</v>
+        <v>7.646249999999999</v>
       </c>
     </row>
     <row r="1053">
@@ -34313,7 +34313,7 @@
         <v>7.29</v>
       </c>
       <c r="J1064" t="n">
-        <v>7.29125</v>
+        <v>7.291250000000001</v>
       </c>
     </row>
     <row r="1065">
@@ -34697,7 +34697,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="J1076" t="n">
-        <v>9.616249999999999</v>
+        <v>9.616250000000001</v>
       </c>
     </row>
     <row r="1077">
@@ -35113,7 +35113,7 @@
         <v>8.74</v>
       </c>
       <c r="J1089" t="n">
-        <v>8.742500000000001</v>
+        <v>8.7425</v>
       </c>
     </row>
     <row r="1090">
@@ -35817,7 +35817,7 @@
         <v>8.66</v>
       </c>
       <c r="J1111" t="n">
-        <v>8.657499999999999</v>
+        <v>8.657500000000001</v>
       </c>
     </row>
     <row r="1112">
@@ -36649,7 +36649,7 @@
         <v>8.9</v>
       </c>
       <c r="J1137" t="n">
-        <v>8.9</v>
+        <v>8.899999999999999</v>
       </c>
     </row>
     <row r="1138">
@@ -36969,7 +36969,7 @@
         <v>9.57</v>
       </c>
       <c r="J1147" t="n">
-        <v>9.571249999999999</v>
+        <v>9.571250000000001</v>
       </c>
     </row>
     <row r="1148">
@@ -37001,7 +37001,7 @@
         <v>7.1</v>
       </c>
       <c r="J1148" t="n">
-        <v>7.100000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="1149">
@@ -37033,7 +37033,7 @@
         <v>7.63</v>
       </c>
       <c r="J1149" t="n">
-        <v>7.628750000000001</v>
+        <v>7.62875</v>
       </c>
     </row>
     <row r="1150">
@@ -37417,7 +37417,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="J1161" t="n">
-        <v>9.786249999999999</v>
+        <v>9.786250000000001</v>
       </c>
     </row>
     <row r="1162">
@@ -37737,7 +37737,7 @@
         <v>7.18</v>
       </c>
       <c r="J1171" t="n">
-        <v>7.177499999999998</v>
+        <v>7.1775</v>
       </c>
     </row>
     <row r="1172">
@@ -38153,7 +38153,7 @@
         <v>7.98</v>
       </c>
       <c r="J1184" t="n">
-        <v>7.977499999999999</v>
+        <v>7.977500000000001</v>
       </c>
     </row>
     <row r="1185">
@@ -38185,7 +38185,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="J1185" t="n">
-        <v>8.962499999999999</v>
+        <v>8.9625</v>
       </c>
     </row>
     <row r="1186">
@@ -39337,7 +39337,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="J1221" t="n">
-        <v>9.6225</v>
+        <v>9.622499999999999</v>
       </c>
     </row>
     <row r="1222">
@@ -39721,7 +39721,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="J1233" t="n">
-        <v>8.051250000000001</v>
+        <v>8.05125</v>
       </c>
     </row>
     <row r="1234">
@@ -40041,7 +40041,7 @@
         <v>7.82</v>
       </c>
       <c r="J1243" t="n">
-        <v>7.822499999999999</v>
+        <v>7.822500000000001</v>
       </c>
     </row>
     <row r="1244">
@@ -40105,7 +40105,7 @@
         <v>9.91</v>
       </c>
       <c r="J1245" t="n">
-        <v>9.90875</v>
+        <v>9.908750000000001</v>
       </c>
     </row>
     <row r="1246">
@@ -40457,7 +40457,7 @@
         <v>9.02</v>
       </c>
       <c r="J1256" t="n">
-        <v>9.022499999999999</v>
+        <v>9.022500000000001</v>
       </c>
     </row>
     <row r="1257">
@@ -41225,7 +41225,7 @@
         <v>7.67</v>
       </c>
       <c r="J1280" t="n">
-        <v>7.666250000000001</v>
+        <v>7.66625</v>
       </c>
     </row>
     <row r="1281">
@@ -41257,7 +41257,7 @@
         <v>8.52</v>
       </c>
       <c r="J1281" t="n">
-        <v>8.522499999999999</v>
+        <v>8.522500000000001</v>
       </c>
     </row>
     <row r="1282">
@@ -41961,7 +41961,7 @@
         <v>8.77</v>
       </c>
       <c r="J1303" t="n">
-        <v>8.766250000000001</v>
+        <v>8.766249999999999</v>
       </c>
     </row>
     <row r="1304">
@@ -41993,7 +41993,7 @@
         <v>7.89</v>
       </c>
       <c r="J1304" t="n">
-        <v>7.893750000000001</v>
+        <v>7.89375</v>
       </c>
     </row>
     <row r="1305">
@@ -43561,7 +43561,7 @@
         <v>9.75</v>
       </c>
       <c r="J1353" t="n">
-        <v>9.751249999999999</v>
+        <v>9.751250000000001</v>
       </c>
     </row>
     <row r="1354">
@@ -44329,7 +44329,7 @@
         <v>8.41</v>
       </c>
       <c r="J1377" t="n">
-        <v>8.408750000000001</v>
+        <v>8.40875</v>
       </c>
     </row>
     <row r="1378">
@@ -44617,7 +44617,7 @@
         <v>9.82</v>
       </c>
       <c r="J1386" t="n">
-        <v>9.822499999999998</v>
+        <v>9.8225</v>
       </c>
     </row>
     <row r="1387">
@@ -44681,7 +44681,7 @@
         <v>8.99</v>
       </c>
       <c r="J1388" t="n">
-        <v>8.99375</v>
+        <v>8.993749999999999</v>
       </c>
     </row>
     <row r="1389">
@@ -44713,7 +44713,7 @@
         <v>9.81</v>
       </c>
       <c r="J1389" t="n">
-        <v>9.808750000000002</v>
+        <v>9.80875</v>
       </c>
     </row>
     <row r="1390">
@@ -44794,6 +44794,20 @@
       <c r="I1392" t="inlineStr"/>
       <c r="J1392" t="inlineStr"/>
     </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B1393" t="inlineStr"/>
+      <c r="C1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr"/>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="inlineStr"/>
+      <c r="H1393" t="inlineStr"/>
+      <c r="I1393" t="inlineStr"/>
+      <c r="J1393" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMean_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1393"/>
+  <dimension ref="A1:J1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44784,29 +44784,107 @@
       <c r="A1392" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-      <c r="J1392" t="inlineStr"/>
+      <c r="B1392" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>14.65125</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
+      <c r="B1393" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>18.6</v>
+      </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-      <c r="J1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>17.51</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>16.34285714285715</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+      <c r="J1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
